--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\視覺輔助\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C23D9-0B77-4151-AE78-8AB0649CE03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8665FB9-F323-4836-BEA6-12908F8BCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +330,18 @@
   </si>
   <si>
     <t>永久升級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援服務紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/6/13 透過聯郃國際反映轉點字出錯，故提供免費升級至 3.18 版。但僅此一次免費升級。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,112 +544,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -858,12 +785,109 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,23 +908,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:N20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="15">
-  <autoFilter ref="A2:N20" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:O20" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{6D60E4AE-A398-4EBC-87BC-7B18880CCC07}" name="訂單生效日" dataDxfId="14"/>
     <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{9F793B0C-07EC-4D4B-B5A0-690AB4149971}" name="經銷商" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{25DB4084-1394-430D-8919-325F51EDB612}" name="軟體版本" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="7" dataCellStyle="超連結"/>
-    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{25DB4084-1394-430D-8919-325F51EDB612}" name="軟體版本" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{EAA2ACD0-7E46-4798-A15E-0F0D7AA04403}" name="支援服務紀錄" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="3" dataCellStyle="超連結"/>
+    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,81 +1252,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="37.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" ht="39" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="78">
       <c r="A3" s="10">
         <v>42901</v>
       </c>
@@ -1309,21 +1338,26 @@
         <v>33</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="10">
         <v>42869</v>
       </c>
@@ -1332,20 +1366,21 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="10">
         <v>42650</v>
       </c>
@@ -1354,20 +1389,21 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="47.25">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="46.8">
       <c r="A6" s="10">
         <v>39444</v>
       </c>
@@ -1375,33 +1411,34 @@
         <v>5</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="10">
         <v>39525</v>
       </c>
@@ -1410,26 +1447,27 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="10">
         <v>39623</v>
       </c>
@@ -1438,22 +1476,23 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="10">
         <v>39975</v>
       </c>
@@ -1462,22 +1501,23 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="10">
         <v>44599</v>
       </c>
@@ -1486,24 +1526,25 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="7"/>
+      <c r="N10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="31.5">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" ht="46.8">
       <c r="A11" s="10">
         <v>40715</v>
       </c>
@@ -1512,26 +1553,27 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="N11" s="13"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="10">
         <v>42198</v>
       </c>
@@ -1540,20 +1582,21 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="10">
         <v>42360</v>
       </c>
@@ -1562,18 +1605,19 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="10">
         <v>44813</v>
       </c>
@@ -1584,30 +1628,31 @@
         <v>63</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="23">
+      <c r="J14" s="22">
         <v>45230</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="13"/>
+      <c r="O14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="31.5">
+    <row r="15" spans="1:15" ht="31.2">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>49</v>
@@ -1616,22 +1661,23 @@
         <v>61</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25">
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="10">
         <v>44864</v>
       </c>
@@ -1644,30 +1690,31 @@
       <c r="D16" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="12"/>
+      <c r="F16" s="18">
         <v>35000</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="22">
+      <c r="H16" s="21">
         <v>44951</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <v>73415</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="10">
         <v>44901</v>
       </c>
@@ -1680,24 +1727,25 @@
       <c r="D17" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="12"/>
+      <c r="F17" s="18">
         <v>35000</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <v>73415</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1705,15 +1753,16 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1721,15 +1770,16 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1737,27 +1787,29 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5">
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="3"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="K21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1766,10 +1818,11 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="K22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1778,10 +1831,11 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="K23" s="3"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1790,10 +1844,11 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="K24" s="3"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1802,10 +1857,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="K25" s="3"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1814,10 +1870,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="K26" s="3"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1826,10 +1883,11 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="K27" s="3"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1838,9 +1896,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="K28" s="3"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1849,9 +1908,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="K29" s="3"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1860,9 +1920,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="K30" s="3"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1871,8 +1932,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1881,6 +1943,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1888,10 +1951,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -1922,12 +1985,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="17" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -1945,7 +2008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5">
+    <row r="2" spans="1:4" ht="16.2">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -1985,7 +2048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\視覺輔助\text-to-braille\Doc\銷售\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\易點雙視\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8665FB9-F323-4836-BEA6-12908F8BCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94606FDF-A65A-4A71-817D-AC564EC4E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,17 @@
   </si>
   <si>
     <t>2023/6/13 透過聯郃國際反映轉點字出錯，故提供免費升級至 3.18 版。但僅此一次免費升級。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0DE2-1369-17B2-06A2</t>
+  </si>
+  <si>
+    <t>從 v2.9 升級，費用打八折。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,14 +573,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,24 +588,6 @@
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -857,6 +850,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -915,26 +926,26 @@
     <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{9F793B0C-07EC-4D4B-B5A0-690AB4149971}" name="經銷商" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{25DB4084-1394-430D-8919-325F51EDB612}" name="軟體版本" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{EAA2ACD0-7E46-4798-A15E-0F0D7AA04403}" name="支援服務紀錄" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="3" dataCellStyle="超連結"/>
-    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{EAA2ACD0-7E46-4798-A15E-0F0D7AA04403}" name="支援服務紀錄" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="2" dataCellStyle="超連結"/>
+    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -972,9 +983,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,26 +1018,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,26 +1053,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1255,33 +1232,33 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
     <col min="6" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="37.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.75" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1330,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="78">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="63">
       <c r="A3" s="10">
         <v>42901</v>
       </c>
@@ -1338,10 +1315,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="18"/>
@@ -1403,7 +1380,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="46.8">
+    <row r="6" spans="1:15" ht="47.25">
       <c r="A6" s="10">
         <v>39444</v>
       </c>
@@ -1517,7 +1494,7 @@
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="10">
         <v>44599</v>
       </c>
@@ -1544,7 +1521,7 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="46.8">
+    <row r="11" spans="1:15" ht="31.5">
       <c r="A11" s="10">
         <v>40715</v>
       </c>
@@ -1652,7 +1629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.2">
+    <row r="15" spans="1:15" ht="31.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>49</v>
@@ -1677,7 +1654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="10">
         <v>44864</v>
       </c>
@@ -1745,22 +1722,38 @@
       <c r="N17" s="13"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="17.25">
+      <c r="A18" s="10">
+        <v>45119</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="18">
+        <v>28000</v>
+      </c>
+      <c r="G18" s="18"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="9"/>
@@ -1796,7 +1789,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" ht="16.2">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1969,7 +1962,7 @@
           <x14:formula1>
             <xm:f>經銷商!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C17</xm:sqref>
+          <xm:sqref>C3:C18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1985,12 +1978,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="17" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -2008,7 +2001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.2">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -2048,7 +2041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\易點雙視\text-to-braille\Doc\銷售\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94606FDF-A65A-4A71-817D-AC564EC4E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC867680-1627-46C5-B656-6AD1AFAD9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,14 +345,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0DE2-1369-17B2-06A2</t>
   </si>
   <si>
     <t>從 v2.9 升級，費用打八折。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北啟明學校，發給明德國中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20FE-069F-0FF3-1F05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北啟明學校，發給仁愛國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2417-0B42-1824-267C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,6 +937,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:O20" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O20">
+    <sortCondition descending="1" ref="A3:A20"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{6D60E4AE-A398-4EBC-87BC-7B18880CCC07}" name="訂單生效日" dataDxfId="14"/>
     <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="13"/>
@@ -1232,7 +1251,8 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1307,174 +1327,210 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="63">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A3" s="10">
-        <v>42901</v>
+        <v>45146</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="18">
+        <v>28000</v>
+      </c>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="J3" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K3" s="10"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="10">
-        <v>42869</v>
+        <v>45146</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18">
+        <v>28000</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="J4" s="10">
+        <v>73415</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="10">
-        <v>42650</v>
+        <v>45119</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="18">
+        <v>28000</v>
+      </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="J5" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="47.25">
       <c r="A6" s="10">
-        <v>39444</v>
+        <v>44901</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="18">
+        <v>35000</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="I6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="10">
-        <v>39525</v>
+        <v>44864</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="13"/>
+      <c r="F7" s="18">
+        <v>35000</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="21">
+        <v>44951</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="10">
-        <v>39623</v>
+        <v>44813</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="22">
+        <v>45230</v>
+      </c>
       <c r="K8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="M8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="O8" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="10">
-        <v>39975</v>
+        <v>44599</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1482,51 +1538,53 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="9" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="13" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="10">
-        <v>44599</v>
+        <v>42901</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="31.5">
       <c r="A11" s="10">
-        <v>40715</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>42869</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1535,27 +1593,21 @@
       <c r="G11" s="18"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="10">
-        <v>42198</v>
+        <v>42650</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1564,13 +1616,13 @@
       <c r="G12" s="18"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
@@ -1596,198 +1648,194 @@
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="10">
-        <v>44813</v>
+        <v>42198</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="22">
-        <v>45230</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="31.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A15" s="10">
+        <v>40715</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
       <c r="I15" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7"/>
+      <c r="K15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="10">
-        <v>44864</v>
+        <v>39975</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="12">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="18">
-        <v>35000</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="21">
-        <v>44951</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="10">
-        <v>73415</v>
-      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="N16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="10">
-        <v>44901</v>
+        <v>39623</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="18">
-        <v>35000</v>
-      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="10">
-        <v>73415</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="9"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A18" s="10">
-        <v>45119</v>
+        <v>39525</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="18">
-        <v>28000</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="10">
-        <v>73415</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="10">
+        <v>39444</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="9"/>
+      <c r="J19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
       <c r="M20" s="7"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="16.5">
       <c r="C21" s="3"/>
@@ -1944,10 +1992,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -1962,7 +2010,7 @@
           <x14:formula1>
             <xm:f>經銷商!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C18</xm:sqref>
+          <xm:sqref>C3:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC867680-1627-46C5-B656-6AD1AFAD9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FD19E-F857-4BCB-AE77-8057FAA970CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>2417-0B42-1824-267C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05E5-080B-1909-1A22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194D-02CF-0058-236C</t>
+  </si>
+  <si>
+    <t>臺南市永福國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +531,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +612,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -935,10 +968,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:O20" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O20">
-    <sortCondition descending="1" ref="A3:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:O22" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O22">
+    <sortCondition descending="1" ref="A5:A22"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{6D60E4AE-A398-4EBC-87BC-7B18880CCC07}" name="訂單生效日" dataDxfId="14"/>
@@ -1248,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1327,122 +1360,118 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="17.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="30">
+        <v>73415</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="10">
+        <v>45299</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27">
+        <v>33250</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="32">
+        <v>41647</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="30">
+        <v>73415</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="17.25">
+      <c r="A5" s="10">
         <v>45146</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="10">
-        <v>73415</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="10">
-        <v>45146</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="10">
-        <v>73415</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="10">
-        <v>45119</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="18">
         <v>28000</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J5" s="10">
         <v>73415</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="47.25">
+      <c r="M5" s="7"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="10">
-        <v>44901</v>
+        <v>45146</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="D6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="18">
-        <v>35000</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>28000</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="J6" s="10">
         <v>73415</v>
@@ -1453,138 +1482,148 @@
       <c r="N6" s="13"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="10">
-        <v>44864</v>
+        <v>45119</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="18">
-        <v>35000</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="21">
-        <v>44951</v>
-      </c>
+        <v>28000</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J7" s="10">
         <v>73415</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="10">
-        <v>44813</v>
+        <v>44901</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>35000</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="22">
-        <v>45230</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J8" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="10">
-        <v>44599</v>
+        <v>44864</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="18">
+        <v>35000</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="21">
+        <v>44951</v>
+      </c>
       <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="J9" s="10">
+        <v>73415</v>
+      </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="10">
-        <v>42901</v>
+        <v>44813</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>79</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="31.5">
+        <v>47</v>
+      </c>
+      <c r="J10" s="22">
+        <v>45230</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="10">
-        <v>42869</v>
+        <v>44599</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1593,44 +1632,52 @@
       <c r="G11" s="18"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="L11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" ht="63">
       <c r="A12" s="10">
-        <v>42650</v>
+        <v>42901</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="10">
-        <v>42360</v>
+        <v>42869</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1638,20 +1685,22 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="13"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="10">
-        <v>42198</v>
+        <v>42650</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1660,21 +1709,21 @@
       <c r="G14" s="18"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="13"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="31.5">
+    <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="10">
-        <v>40715</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>42360</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1682,28 +1731,20 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="13"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="17.25">
+    <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="10">
-        <v>39975</v>
+        <v>42198</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1711,24 +1752,22 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="L16" s="9"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="N16" s="13"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="10">
-        <v>39623</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
+        <v>40715</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1736,24 +1775,28 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="9"/>
+      <c r="K17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="M17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="17.25">
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25">
       <c r="A18" s="10">
-        <v>39525</v>
+        <v>39975</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1763,114 +1806,138 @@
       <c r="H18" s="9"/>
       <c r="I18" s="11"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="K18" s="10"/>
       <c r="L18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="10">
-        <v>39444</v>
+        <v>39623</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="17.25">
+      <c r="A20" s="10">
+        <v>39525</v>
+      </c>
       <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="A21" s="10">
+        <v>39444</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="M23" s="5"/>
@@ -1938,6 +2005,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:15">
@@ -1950,6 +2018,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:15">
@@ -1974,6 +2043,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:15">
       <c r="C32" s="3"/>
@@ -1985,6 +2055,29 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1992,10 +2085,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -2010,7 +2103,7 @@
           <x14:formula1>
             <xm:f>經銷商!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C20</xm:sqref>
+          <xm:sqref>C3:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FD19E-F857-4BCB-AE77-8057FAA970CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCADD6-FBF4-45D9-AF8F-47C8ED62BBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,14 @@
   </si>
   <si>
     <t>臺南市永福國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全教總-秋圃專案01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,26 +618,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,7 +1293,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1308,10 +1316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1361,64 +1369,74 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="10">
+        <v>45299</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26">
+        <v>33250</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="31">
+        <v>41648</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>73415</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="10">
         <v>45299</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>33250</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>41647</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>73415</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A5" s="10">

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\視覺輔助\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCADD6-FBF4-45D9-AF8F-47C8ED62BBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2588AC6-BE2C-4932-94B2-FDB987714435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,14 @@
   </si>
   <si>
     <t>轉帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全教總-秋圃專案02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0CD7-1036-21D8-1DC2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,10 +984,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:O22" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O22">
-    <sortCondition descending="1" ref="A5:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:O23" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O23">
+    <sortCondition descending="1" ref="A6:A23"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{6D60E4AE-A398-4EBC-87BC-7B18880CCC07}" name="訂單生效日" dataDxfId="14"/>
@@ -1289,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1370,10 +1378,10 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="10">
-        <v>45299</v>
+        <v>45380</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>61</v>
@@ -1383,16 +1391,16 @@
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26">
-        <v>33250</v>
+        <v>35000</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="31">
-        <v>41648</v>
+        <v>41727</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J3" s="29">
         <v>73415</v>
@@ -1408,7 +1416,7 @@
         <v>45299</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>61</v>
@@ -1421,13 +1429,13 @@
         <v>33250</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="31">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" s="29">
         <v>73415</v>
@@ -1438,43 +1446,47 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="17.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="10">
-        <v>45146</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="24" t="s">
+        <v>45299</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
+        <v>33250</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="31">
+        <v>41647</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="29">
         <v>73415</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="K5" s="29"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A6" s="10">
         <v>45146</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>54</v>
@@ -1489,7 +1501,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" s="10">
         <v>73415</v>
@@ -1502,74 +1514,74 @@
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="10">
-        <v>45119</v>
+        <v>45146</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E7" s="25"/>
+      <c r="D7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="18">
         <v>28000</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" s="10">
         <v>73415</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="17.25">
+      <c r="M7" s="7"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="10">
-        <v>44901</v>
+        <v>45119</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="18">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J8" s="10">
         <v>73415</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="10">
-        <v>44864</v>
+        <v>44901</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>54</v>
@@ -1581,14 +1593,10 @@
       <c r="F9" s="18">
         <v>35000</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="21">
-        <v>44951</v>
-      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J9" s="10">
         <v>73415</v>
@@ -1597,128 +1605,140 @@
       <c r="L9" s="9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="10">
-        <v>44813</v>
+        <v>44864</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="18">
+        <v>35000</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="21">
+        <v>44951</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="22">
-        <v>45230</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J10" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="9" t="s">
-        <v>46</v>
+      <c r="O10" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="10">
-        <v>44599</v>
+        <v>44813</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="J11" s="22">
+        <v>45230</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="63">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="10">
-        <v>42901</v>
+        <v>44599</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25">
+      <c r="K12" s="10"/>
+      <c r="L12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="63">
       <c r="A13" s="10">
-        <v>42869</v>
+        <v>42901</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="10">
-        <v>42650</v>
+        <v>42869</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1727,7 +1747,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1738,10 +1758,10 @@
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="10">
-        <v>42360</v>
+        <v>42650</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1749,20 +1769,22 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="13"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="10">
-        <v>42198</v>
+        <v>42360</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1770,9 +1792,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="9"/>
@@ -1780,12 +1800,12 @@
       <c r="N16" s="13"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="10">
-        <v>40715</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>42198</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1794,27 +1814,21 @@
       <c r="G17" s="18"/>
       <c r="H17" s="9"/>
       <c r="I17" s="11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="13"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="17.25">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="10">
-        <v>39975</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>0</v>
+        <v>40715</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1822,24 +1836,28 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="K18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25">
       <c r="A19" s="10">
-        <v>39623</v>
+        <v>39975</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1849,22 +1867,22 @@
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="17.25">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="10">
-        <v>39525</v>
+        <v>39623</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1875,100 +1893,112 @@
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A21" s="10">
-        <v>39444</v>
+        <v>39525</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="10">
+        <v>39444</v>
+      </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="M24" s="5"/>
@@ -2049,6 +2079,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:15">
@@ -2075,7 +2106,7 @@
       <c r="K32" s="3"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:14">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2085,8 +2116,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11">
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="3:14">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2097,16 +2129,27 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -2121,7 +2164,7 @@
           <x14:formula1>
             <xm:f>經銷商!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C22</xm:sqref>
+          <xm:sqref>C3:C23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\視覺輔助\text-to-braille\Doc\銷售\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2588AC6-BE2C-4932-94B2-FDB987714435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D5C9E-FBC2-45F9-A760-41E558EE72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,17 @@
   </si>
   <si>
     <t>0CD7-1036-21D8-1DC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化南郭國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22D5-1902-07E7-24AB</t>
+  </si>
+  <si>
+    <t>尚未支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -508,8 +519,16 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +547,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -547,7 +572,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,10 +1012,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:O23" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O23">
-    <sortCondition descending="1" ref="A6:A23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:O24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:O24" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O24">
+    <sortCondition descending="1" ref="A7:A24"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{6D60E4AE-A398-4EBC-87BC-7B18880CCC07}" name="訂單生效日" dataDxfId="14"/>
@@ -1297,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1378,13 +1406,13 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="10">
-        <v>45380</v>
+        <v>45434</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>83</v>
@@ -1393,14 +1421,14 @@
       <c r="F3" s="26">
         <v>35000</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="31">
-        <v>41727</v>
+      <c r="G3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" s="29">
         <v>73415</v>
@@ -1413,10 +1441,10 @@
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="10">
-        <v>45299</v>
+        <v>45380</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>61</v>
@@ -1426,16 +1454,16 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26">
-        <v>33250</v>
+        <v>35000</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="31">
-        <v>41648</v>
+        <v>41727</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J4" s="29">
         <v>73415</v>
@@ -1451,7 +1479,7 @@
         <v>45299</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>61</v>
@@ -1464,13 +1492,13 @@
         <v>33250</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" s="31">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="29">
         <v>73415</v>
@@ -1481,43 +1509,47 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="17.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="10">
-        <v>45146</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="24" t="s">
+        <v>45299</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
+        <v>33250</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="31">
+        <v>41647</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="29">
         <v>73415</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="K6" s="29"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A7" s="10">
         <v>45146</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>54</v>
@@ -1532,7 +1564,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" s="10">
         <v>73415</v>
@@ -1545,74 +1577,74 @@
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="10">
-        <v>45119</v>
+        <v>45146</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E8" s="25"/>
+      <c r="D8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="18">
         <v>28000</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J8" s="10">
         <v>73415</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="17.25">
+      <c r="M8" s="7"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="10">
-        <v>44901</v>
+        <v>45119</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="18">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J9" s="10">
         <v>73415</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="10">
-        <v>44864</v>
+        <v>44901</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>54</v>
@@ -1624,14 +1656,10 @@
       <c r="F10" s="18">
         <v>35000</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="21">
-        <v>44951</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J10" s="10">
         <v>73415</v>
@@ -1640,128 +1668,140 @@
       <c r="L10" s="9"/>
       <c r="M10" s="7"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="10">
-        <v>44813</v>
+        <v>44864</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="18">
+        <v>35000</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="21">
+        <v>44951</v>
+      </c>
       <c r="I11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="22">
-        <v>45230</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J11" s="10">
+        <v>73415</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="9" t="s">
-        <v>46</v>
+      <c r="O11" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="10">
-        <v>44599</v>
+        <v>44813</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="J12" s="22">
+        <v>45230</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="63">
+        <v>44</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="10">
-        <v>42901</v>
+        <v>44599</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25">
+      <c r="K13" s="10"/>
+      <c r="L13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="63">
       <c r="A14" s="10">
-        <v>42869</v>
+        <v>42901</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="10">
-        <v>42650</v>
+        <v>42869</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1770,7 +1810,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
       <c r="I15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1781,10 +1821,10 @@
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="10">
-        <v>42360</v>
+        <v>42650</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1792,20 +1832,22 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="13"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="10">
-        <v>42198</v>
+        <v>42360</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1813,9 +1855,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
@@ -1823,12 +1863,12 @@
       <c r="N17" s="13"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="10">
-        <v>40715</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>24</v>
+        <v>42198</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1837,27 +1877,21 @@
       <c r="G18" s="18"/>
       <c r="H18" s="9"/>
       <c r="I18" s="11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="13"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" ht="17.25">
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="10">
-        <v>39975</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
+        <v>40715</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1865,24 +1899,28 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="K19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.25">
       <c r="A20" s="10">
-        <v>39623</v>
+        <v>39975</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1892,22 +1930,22 @@
       <c r="H20" s="9"/>
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="17.25">
+    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="10">
-        <v>39525</v>
+        <v>39623</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1918,100 +1956,112 @@
       <c r="I21" s="11"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="17.25">
       <c r="A22" s="10">
-        <v>39444</v>
+        <v>39525</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10">
+        <v>39444</v>
+      </c>
       <c r="B23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="M25" s="5"/>
@@ -2092,6 +2142,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:15">
@@ -2128,6 +2179,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="3"/>
@@ -2140,16 +2192,27 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -2159,12 +2222,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32631DA0-9E50-4F9A-AED2-792951DEF4B5}">
           <x14:formula1>
             <xm:f>經銷商!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C23</xm:sqref>
+          <xm:sqref>C3:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/銷售/訂單.xlsx
+++ b/Doc/銷售/訂單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Braille\text-to-braille\Doc\銷售\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D5C9E-FBC2-45F9-A760-41E558EE72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B01262-A868-40B8-9B44-B7C9F8D67128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支援服務紀錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023/6/13 透過聯郃國際反映轉點字出錯，故提供免費升級至 3.18 版。但僅此一次免費升級。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +407,14 @@
   </si>
   <si>
     <t>尚未支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/08/26 轉入玉山 28000? 待確認是否這筆款項。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,11 +673,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,6 +685,25 @@
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -943,24 +966,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1022,17 +1027,17 @@
     <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{9F793B0C-07EC-4D4B-B5A0-690AB4149971}" name="經銷商" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{25DB4084-1394-430D-8919-325F51EDB612}" name="軟體版本" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{EAA2ACD0-7E46-4798-A15E-0F0D7AA04403}" name="支援服務紀錄" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="2" dataCellStyle="超連結"/>
-    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{48095AFC-2980-4FA4-AB02-AADF27A72210}" name="金額$NT" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{01C0FEB5-0CF2-4801-8016-640E71A87A2C}" name="支付方式" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F9549B14-3D7A-4C70-A1BC-2E5340FCECF0}" name="入帳日期" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{EAA2ACD0-7E46-4798-A15E-0F0D7AA04403}" name="備註" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="序號有效期" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="3" dataCellStyle="超連結"/>
+    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,33 +1334,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
-    <col min="6" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="37.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="37.75" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="E1" s="4"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1371,16 +1379,16 @@
         <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>36</v>
@@ -1401,34 +1409,36 @@
         <v>2</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A3" s="10">
         <v>45434</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26">
+        <v>82</v>
+      </c>
+      <c r="E3" s="26">
         <v>35000</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>97</v>
+      <c r="G3" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="29">
         <v>73415</v>
@@ -1444,26 +1454,26 @@
         <v>45380</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+        <v>82</v>
+      </c>
+      <c r="E4" s="26">
         <v>35000</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="31">
+      <c r="F4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="31">
         <v>41727</v>
       </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="29">
         <v>73415</v>
@@ -1479,26 +1489,26 @@
         <v>45299</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+        <v>82</v>
+      </c>
+      <c r="E5" s="26">
         <v>33250</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="F5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="31">
         <v>41648</v>
       </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="29">
         <v>73415</v>
@@ -1514,26 +1524,26 @@
         <v>45299</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
+        <v>82</v>
+      </c>
+      <c r="E6" s="26">
         <v>33250</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="31">
+      <c r="F6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="31">
         <v>41647</v>
       </c>
+      <c r="H6" s="26"/>
       <c r="I6" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="29">
         <v>73415</v>
@@ -1549,22 +1559,22 @@
         <v>45146</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="18">
+        <v>82</v>
+      </c>
+      <c r="E7" s="18">
         <v>28000</v>
       </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="10">
         <v>73415</v>
@@ -1580,22 +1590,22 @@
         <v>45146</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="18">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18">
         <v>28000</v>
       </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="10">
         <v>73415</v>
@@ -1619,14 +1629,14 @@
       <c r="D9" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="18">
+      <c r="E9" s="18">
         <v>28000</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="10">
         <v>73415</v>
@@ -1636,7 +1646,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25">
@@ -1652,12 +1662,12 @@
       <c r="D10" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="18">
+      <c r="E10" s="18">
         <v>35000</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1683,16 +1693,16 @@
       <c r="D11" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="18">
+      <c r="E11" s="18">
         <v>35000</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="21">
+      <c r="G11" s="21">
         <v>44951</v>
       </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="11" t="s">
         <v>74</v>
       </c>
@@ -1718,10 +1728,10 @@
         <v>63</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="11" t="s">
         <v>47</v>
       </c>
@@ -1751,10 +1761,10 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +1779,7 @@
       </c>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="63">
+    <row r="14" spans="1:15" ht="47.25">
       <c r="A14" s="10">
         <v>42901</v>
       </c>
@@ -1780,12 +1790,12 @@
       <c r="D14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>37</v>
       </c>
@@ -1805,10 +1815,10 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="11" t="s">
         <v>38</v>
       </c>
@@ -1828,10 +1838,10 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="11" t="s">
         <v>39</v>
       </c>
@@ -1851,10 +1861,10 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="11"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1872,10 +1882,10 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -1886,7 +1896,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5">
+    <row r="19" spans="1:15" ht="47.25">
       <c r="A19" s="10">
         <v>40715</v>
       </c>
@@ -1895,10 +1905,10 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="11" t="s">
         <v>28</v>
       </c>
@@ -1924,10 +1934,10 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1949,10 +1959,10 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="11"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
@@ -1965,7 +1975,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="17.25">
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="31.5">
       <c r="A22" s="10">
         <v>39525</v>
       </c>
@@ -1974,10 +1984,10 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="11"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
@@ -2005,10 +2015,10 @@
       <c r="D23" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
         <v>75</v>
@@ -2038,10 +2048,10 @@
         <v>61</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="11" t="s">
         <v>48</v>
       </c>
@@ -2054,154 +2064,154 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5">
+    <row r="25" spans="1:15">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="6"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="3:14">
+      <c r="L32" s="3"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="3:14">
+      <c r="L33" s="3"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="3:14">
+      <c r="L34" s="3"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="3:15">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:14">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="3:15">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
